--- a/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 лгрсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/09,11,23 ЗПФ/дв 09,11,23 лгрсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\09,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\09,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC949CB8-96C7-47AF-A21F-A07DDB22FCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1D8417-108C-42B5-A20E-87FD3FFC8E04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$Z$50</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>Период: 02.11.2023 - 09.11.2023</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>устар.</t>
+  </si>
+  <si>
+    <t>ЖАРЛАДУШКИ С МЯСОМ</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
     <numFmt numFmtId="164" formatCode="0_ ;[Red]\-0\ "/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -280,10 +283,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -314,6 +321,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -425,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -487,6 +501,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3392,11 +3407,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB26" sqref="AB26"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3754,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="Y7" s="18">
-        <f t="shared" ref="Y7:Y50" si="7">N7/X7</f>
+        <f t="shared" ref="Y7:Y47" si="7">N7/X7</f>
         <v>0</v>
       </c>
       <c r="Z7" s="2">
@@ -6733,6 +6748,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:26" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A3:Z50" xr:uid="{1E24E68C-1E03-49D7-8888-E97898441596}"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
